--- a/DEMATERA, PEDRO BAUSTISTA.xlsx
+++ b/DEMATERA, PEDRO BAUSTISTA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E16B6-413E-4EDD-9927-2E177EF99CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEC009-6B3E-4247-814A-3A4692888DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>9/6,7/2022</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>12/23,26-29</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2656,9 +2665,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A62" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2821,7 +2830,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.325000000000003</v>
+        <v>66.575000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2831,7 +2840,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.75</v>
+        <v>98</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3866,11 +3875,15 @@
       <c r="A61" s="40">
         <v>44561</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -4137,26 +4150,38 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="60">
+        <v>44904</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>5</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -4166,7 +4191,9 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
